--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Nppc</t>
+  </si>
+  <si>
+    <t>Npr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Nppc</t>
-  </si>
-  <si>
-    <t>Npr2</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H2">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I2">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J2">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.243779</v>
+        <v>21.19112166666667</v>
       </c>
       <c r="N2">
-        <v>48.731337</v>
+        <v>63.573365</v>
       </c>
       <c r="O2">
-        <v>0.4875086269552681</v>
+        <v>0.4896103362399876</v>
       </c>
       <c r="P2">
-        <v>0.4875086269552682</v>
+        <v>0.4896103362399877</v>
       </c>
       <c r="Q2">
-        <v>0.259895049407</v>
+        <v>40.26291219174278</v>
       </c>
       <c r="R2">
-        <v>2.339055444663</v>
+        <v>362.3662097256851</v>
       </c>
       <c r="S2">
-        <v>0.001065974876498037</v>
+        <v>0.2270331735381951</v>
       </c>
       <c r="T2">
-        <v>0.001065974876498037</v>
+        <v>0.2270331735381952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H3">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I3">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J3">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.387227</v>
       </c>
       <c r="O3">
-        <v>0.4040340937352228</v>
+        <v>0.3110422704739745</v>
       </c>
       <c r="P3">
-        <v>0.4040340937352229</v>
+        <v>0.3110422704739746</v>
       </c>
       <c r="Q3">
-        <v>0.2153940565303333</v>
+        <v>25.57843798844033</v>
       </c>
       <c r="R3">
-        <v>1.938546508773</v>
+        <v>230.205941895963</v>
       </c>
       <c r="S3">
-        <v>0.000883451429075775</v>
+        <v>0.1442308475604127</v>
       </c>
       <c r="T3">
-        <v>0.0008834514290757751</v>
+        <v>0.1442308475604128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H4">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I4">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J4">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.587349</v>
+        <v>8.601420333333333</v>
       </c>
       <c r="N4">
-        <v>10.762047</v>
+        <v>25.804261</v>
       </c>
       <c r="O4">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="P4">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="Q4">
-        <v>0.05739638821699999</v>
+        <v>16.34260975198989</v>
       </c>
       <c r="R4">
-        <v>0.5165674939529999</v>
+        <v>147.083487767909</v>
       </c>
       <c r="S4">
-        <v>0.0002354146721172676</v>
+        <v>0.09215216570080692</v>
       </c>
       <c r="T4">
-        <v>0.0002354146721172676</v>
+        <v>0.09215216570080696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H5">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I5">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J5">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02644566666666667</v>
+        <v>0.026655</v>
       </c>
       <c r="N5">
-        <v>0.079337</v>
+        <v>0.07996499999999999</v>
       </c>
       <c r="O5">
-        <v>0.0007936878878728509</v>
+        <v>0.0006158505301305131</v>
       </c>
       <c r="P5">
-        <v>0.000793687887872851</v>
+        <v>0.0006158505301305133</v>
       </c>
       <c r="Q5">
-        <v>0.0004231218514444445</v>
+        <v>0.050644224565</v>
       </c>
       <c r="R5">
-        <v>0.003808096663</v>
+        <v>0.455798021085</v>
       </c>
       <c r="S5">
-        <v>1.735459233895528E-06</v>
+        <v>0.000285570973346806</v>
       </c>
       <c r="T5">
-        <v>1.735459233895528E-06</v>
+        <v>0.0002855709733468061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.899989666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H6">
-        <v>5.699969</v>
+        <v>6.592348</v>
       </c>
       <c r="I6">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J6">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.243779</v>
+        <v>21.19112166666667</v>
       </c>
       <c r="N6">
-        <v>48.731337</v>
+        <v>63.573365</v>
       </c>
       <c r="O6">
-        <v>0.4875086269552681</v>
+        <v>0.4896103362399876</v>
       </c>
       <c r="P6">
-        <v>0.4875086269552682</v>
+        <v>0.4896103362399877</v>
       </c>
       <c r="Q6">
-        <v>30.863012247617</v>
+        <v>46.56641617900223</v>
       </c>
       <c r="R6">
-        <v>277.767110228553</v>
+        <v>419.0977456110201</v>
       </c>
       <c r="S6">
-        <v>0.1265864653600625</v>
+        <v>0.2625771627017925</v>
       </c>
       <c r="T6">
-        <v>0.1265864653600625</v>
+        <v>0.2625771627017925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.899989666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H7">
-        <v>5.699969</v>
+        <v>6.592348</v>
       </c>
       <c r="I7">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J7">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>40.387227</v>
       </c>
       <c r="O7">
-        <v>0.4040340937352228</v>
+        <v>0.3110422704739745</v>
       </c>
       <c r="P7">
-        <v>0.4040340937352229</v>
+        <v>0.3110422704739746</v>
       </c>
       <c r="Q7">
-        <v>25.57843798844033</v>
+        <v>29.58296168211067</v>
       </c>
       <c r="R7">
-        <v>230.205941895963</v>
+        <v>266.246655138996</v>
       </c>
       <c r="S7">
-        <v>0.1049114722960398</v>
+        <v>0.1668114229135618</v>
       </c>
       <c r="T7">
-        <v>0.1049114722960398</v>
+        <v>0.1668114229135618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.899989666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H8">
-        <v>5.699969</v>
+        <v>6.592348</v>
       </c>
       <c r="I8">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J8">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.587349</v>
+        <v>8.601420333333333</v>
       </c>
       <c r="N8">
-        <v>10.762047</v>
+        <v>25.804261</v>
       </c>
       <c r="O8">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="P8">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="Q8">
-        <v>6.815926030727</v>
+        <v>18.90118537720311</v>
       </c>
       <c r="R8">
-        <v>61.343334276543</v>
+        <v>170.110668394828</v>
       </c>
       <c r="S8">
-        <v>0.02795592269033916</v>
+        <v>0.1065793770551003</v>
       </c>
       <c r="T8">
-        <v>0.02795592269033917</v>
+        <v>0.1065793770551004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.899989666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H9">
-        <v>5.699969</v>
+        <v>6.592348</v>
       </c>
       <c r="I9">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J9">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,276 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02644566666666667</v>
+        <v>0.026655</v>
       </c>
       <c r="N9">
-        <v>0.079337</v>
+        <v>0.07996499999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007936878878728509</v>
+        <v>0.0006158505301305131</v>
       </c>
       <c r="P9">
-        <v>0.000793687887872851</v>
+        <v>0.0006158505301305133</v>
       </c>
       <c r="Q9">
-        <v>0.05024649339477778</v>
+        <v>0.05857301198000001</v>
       </c>
       <c r="R9">
-        <v>0.452218440553</v>
+        <v>0.52715710782</v>
       </c>
       <c r="S9">
-        <v>0.0002060889567276038</v>
+        <v>0.000330279556783707</v>
       </c>
       <c r="T9">
-        <v>0.0002060889567276039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H10">
-        <v>16.2037</v>
-      </c>
-      <c r="I10">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J10">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.243779</v>
-      </c>
-      <c r="N10">
-        <v>48.731337</v>
-      </c>
-      <c r="O10">
-        <v>0.4875086269552681</v>
-      </c>
-      <c r="P10">
-        <v>0.4875086269552682</v>
-      </c>
-      <c r="Q10">
-        <v>87.7364405941</v>
-      </c>
-      <c r="R10">
-        <v>789.6279653469001</v>
-      </c>
-      <c r="S10">
-        <v>0.3598561867187076</v>
-      </c>
-      <c r="T10">
-        <v>0.3598561867187077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H11">
-        <v>16.2037</v>
-      </c>
-      <c r="I11">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J11">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.462409</v>
-      </c>
-      <c r="N11">
-        <v>40.387227</v>
-      </c>
-      <c r="O11">
-        <v>0.4040340937352228</v>
-      </c>
-      <c r="P11">
-        <v>0.4040340937352229</v>
-      </c>
-      <c r="Q11">
-        <v>72.71361223776667</v>
-      </c>
-      <c r="R11">
-        <v>654.4225101398999</v>
-      </c>
-      <c r="S11">
-        <v>0.2982391700101072</v>
-      </c>
-      <c r="T11">
-        <v>0.2982391700101072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H12">
-        <v>16.2037</v>
-      </c>
-      <c r="I12">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J12">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.587349</v>
-      </c>
-      <c r="N12">
-        <v>10.762047</v>
-      </c>
-      <c r="O12">
-        <v>0.1076635914216362</v>
-      </c>
-      <c r="P12">
-        <v>0.1076635914216362</v>
-      </c>
-      <c r="Q12">
-        <v>19.3761089971</v>
-      </c>
-      <c r="R12">
-        <v>174.3849809739</v>
-      </c>
-      <c r="S12">
-        <v>0.07947225405917975</v>
-      </c>
-      <c r="T12">
-        <v>0.07947225405917976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H13">
-        <v>16.2037</v>
-      </c>
-      <c r="I13">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J13">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02644566666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.079337</v>
-      </c>
-      <c r="O13">
-        <v>0.0007936878878728509</v>
-      </c>
-      <c r="P13">
-        <v>0.000793687887872851</v>
-      </c>
-      <c r="Q13">
-        <v>0.1428392163222222</v>
-      </c>
-      <c r="R13">
-        <v>1.2855529469</v>
-      </c>
-      <c r="S13">
-        <v>0.0005858634719113516</v>
-      </c>
-      <c r="T13">
-        <v>0.0005858634719113516</v>
+        <v>0.0003302795567837071</v>
       </c>
     </row>
   </sheetData>
